--- a/HydroBOSSE/project_list.xlsx
+++ b/HydroBOSSE/project_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpoudel\PycharmProjects\hybrids_shared_infrastructure\HydroBOSSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53439E1A-0D1F-43FF-9566-83B9D4661492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D99BCD-4EAE-4D07-9709-53C6081944F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CA848B2B-50AD-1141-9E6B-5049DCE507C8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Project ID</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>Turbine type</t>
+  </si>
+  <si>
+    <t>Labor cost multiplier</t>
+  </si>
+  <si>
+    <t>crew_price</t>
+  </si>
+  <si>
+    <t>Hourly rate USD per hour</t>
+  </si>
+  <si>
+    <t>Hours per workday (hours)</t>
+  </si>
+  <si>
+    <t>dc_ac_ratio</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>New Switchyard (y/n)</t>
   </si>
 </sst>
 </file>
@@ -470,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C2AE7-DAF9-A64F-82B2-BFC05FEB6151}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,12 +568,24 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
       <c r="V1" s="4"/>
@@ -604,10 +637,24 @@
       <c r="M2" s="1">
         <v>1.03</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
